--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.morais\Documents\UiPath\prj_t2c_EmailProspeccao_Outlook\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B1DA78-169C-4756-B54E-74004D094BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD7BEB1-5B82-40B8-8364-02A1DBE8EAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,10 +137,10 @@
     <t>C:\Users\lucas.morais\Documents\UiPath\prj_t2c_EmailProspeccao_Outlook\Data\Output\Dados Cliente.xlsx</t>
   </si>
   <si>
-    <t>C:\Users\lucas.morais\Documents\UiPath\prj_t2c_EmailProspeccao_Outlook\Data\Input\Contatos_Ramper - Segmentos.xlsx</t>
-  </si>
-  <si>
     <t>AGRO BUSINESS,CONSTRUCAO,COOPERATIVA,VAREJO</t>
+  </si>
+  <si>
+    <t>C:\Users\lucas.morais\Documents\UiPath\prj_t2c_EmailProspeccao_Outlook\Data\Input\Contatos_Ramper - Segmentos - Teste.xlsx</t>
   </si>
 </sst>
 </file>
@@ -525,14 +525,14 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="114.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -599,7 +599,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -611,7 +611,7 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.morais\Documents\UiPath\prj_t2c_EmailProspeccao_Outlook\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD7BEB1-5B82-40B8-8364-02A1DBE8EAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B47B11C-E7AF-416F-BD9D-F38D494722E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,10 +137,10 @@
     <t>C:\Users\lucas.morais\Documents\UiPath\prj_t2c_EmailProspeccao_Outlook\Data\Output\Dados Cliente.xlsx</t>
   </si>
   <si>
-    <t>AGRO BUSINESS,CONSTRUCAO,COOPERATIVA,VAREJO</t>
-  </si>
-  <si>
-    <t>C:\Users\lucas.morais\Documents\UiPath\prj_t2c_EmailProspeccao_Outlook\Data\Input\Contatos_Ramper - Segmentos - Teste.xlsx</t>
+    <t>FOOD</t>
+  </si>
+  <si>
+    <t>C:\Users\lucas.morais\Documents\UiPath\prj_t2c_EmailProspeccao_Outlook\Data\Input\Contatos_Ramper - Segmentos - FOOD.xlsx</t>
   </si>
 </sst>
 </file>
